--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData30jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A5F930-E1A1-4CF0-99E0-216D703024A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6B5F3-BDFF-4A46-9C95-9E92808A874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -53,18 +53,24 @@
     <t>YES</t>
   </si>
   <si>
+    <t>testT4116_Negative</t>
+  </si>
+  <si>
+    <t>testT4115</t>
+  </si>
+  <si>
+    <t>testT2926</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>testT4115</t>
-  </si>
-  <si>
-    <t>testT2926</t>
-  </si>
-  <si>
     <t>testT2901</t>
   </si>
   <si>
+    <t>testT2901_1</t>
+  </si>
+  <si>
     <t>testT2922</t>
   </si>
   <si>
@@ -80,29 +86,50 @@
     <t>testT4239</t>
   </si>
   <si>
-    <t>testT4116_Negative</t>
-  </si>
-  <si>
     <t>testT4250</t>
   </si>
   <si>
     <t>testT2929</t>
   </si>
   <si>
-    <t>testT2901_1</t>
-  </si>
-  <si>
     <t>testT4244</t>
   </si>
   <si>
     <t>testPOM</t>
+  </si>
+  <si>
+    <t>testT4145</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup1</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup2</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup3</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup4</t>
+  </si>
+  <si>
+    <t>testT4764</t>
+  </si>
+  <si>
+    <t>testT4748</t>
+  </si>
+  <si>
+    <t>testT4148</t>
+  </si>
+  <si>
+    <t>testT4273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +146,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,6 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -509,10 +550,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -529,7 +570,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -539,13 +580,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -568,12 +609,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -584,7 +625,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -594,19 +635,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -617,18 +658,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -639,7 +680,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -650,7 +691,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -661,7 +702,7 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -672,7 +713,7 @@
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -683,7 +724,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -693,62 +734,152 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
+      <c r="C30" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -763,15 +894,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -988,6 +1110,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -999,14 +1130,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1023,4 +1146,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData30jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6B5F3-BDFF-4A46-9C95-9E92808A874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6AD89-46B8-4C27-A24D-C5C46E8A678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+  <si>
+    <t>MILESTONE</t>
+  </si>
   <si>
     <t>TESTCASE</t>
   </si>
@@ -53,9 +56,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>testT4116_Negative</t>
-  </si>
-  <si>
     <t>testT4115</t>
   </si>
   <si>
@@ -68,68 +68,92 @@
     <t>testT2901</t>
   </si>
   <si>
-    <t>testT2901_1</t>
-  </si>
-  <si>
     <t>testT2922</t>
   </si>
   <si>
     <t>testT2928</t>
   </si>
   <si>
-    <t>testScreening</t>
-  </si>
-  <si>
-    <t>testFolio</t>
+    <t>testT2929</t>
+  </si>
+  <si>
+    <t>testT4748</t>
+  </si>
+  <si>
+    <t>testT4244</t>
+  </si>
+  <si>
+    <t>testT4250</t>
   </si>
   <si>
     <t>testT4239</t>
   </si>
   <si>
-    <t>testT4250</t>
-  </si>
-  <si>
-    <t>testT2929</t>
-  </si>
-  <si>
-    <t>testT4244</t>
-  </si>
-  <si>
-    <t>testPOM</t>
+    <t>dataSetup</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup1</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup2</t>
+  </si>
+  <si>
+    <t>testCaseDataSetup1</t>
+  </si>
+  <si>
+    <t>testCaseDataSetup2</t>
+  </si>
+  <si>
+    <t>nonInvestigativeCaseDataSetup1</t>
   </si>
   <si>
     <t>testT4145</t>
   </si>
   <si>
-    <t>testFolioDataSetup1</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup2</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup3</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup4</t>
-  </si>
-  <si>
     <t>testT4764</t>
   </si>
   <si>
-    <t>testT4748</t>
-  </si>
-  <si>
     <t>testT4148</t>
   </si>
   <si>
+    <t>testT4763</t>
+  </si>
+  <si>
+    <t>testT4215</t>
+  </si>
+  <si>
+    <t>testT4256</t>
+  </si>
+  <si>
     <t>testT4273</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>testT4275</t>
+  </si>
+  <si>
+    <t>testT4213</t>
+  </si>
+  <si>
+    <t>testT4274</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>testT4240</t>
+  </si>
+  <si>
+    <t>testT4245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,48 +175,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,18 +216,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,364 +553,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="28" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10">
-        <v>2</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>8</v>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,20 +1278,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1149,9 +1315,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6AD89-46B8-4C27-A24D-C5C46E8A678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CDA5E-C5F2-4972-8B3F-B33E20F1C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>MILESTONE</t>
   </si>
@@ -146,14 +146,17 @@
     <t>testT4240</t>
   </si>
   <si>
-    <t>testT4245</t>
+    <t>caseChildLocationSetup</t>
+  </si>
+  <si>
+    <t>testT4249</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -239,6 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1031,16 +1041,44 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
         <v>15</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1052,15 +1090,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1277,7 +1306,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -1287,15 +1316,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1314,7 +1344,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1324,6 +1354,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CDA5E-C5F2-4972-8B3F-B33E20F1C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7348BD-1FFE-4A20-A7D7-6C51A623ED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>MILESTONE</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>testT4249</t>
+  </si>
+  <si>
+    <t>testT4245</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -1090,6 +1093,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1306,16 +1319,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1326,6 +1329,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1344,16 +1357,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7348BD-1FFE-4A20-A7D7-6C51A623ED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DBB04-5CC2-4F98-A626-935245E7F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>MILESTONE</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>testT4249</t>
+  </si>
+  <si>
+    <t>testT4149</t>
   </si>
   <si>
     <t>testT4245</t>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -252,6 +255,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1076,12 +1085,26 @@
         <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1093,13 +1116,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1320,20 +1342,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1358,9 +1379,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
